--- a/Tokens.xlsx
+++ b/Tokens.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16828"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Token</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Harlequin Hero</t>
+  </si>
+  <si>
+    <t>Heavy Armor</t>
   </si>
 </sst>
 </file>
@@ -131,8 +134,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C23" totalsRowShown="0">
-  <autoFilter ref="A1:C23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C24" totalsRowShown="0">
+  <autoFilter ref="A1:C24"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Token"/>
     <tableColumn id="2" name="Rule"/>
@@ -439,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,33 +499,41 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>15</v>
       </c>
     </row>
